--- a/data/trans_orig/CUI_GLOB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>69407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60120</v>
+        <v>59843</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77697</v>
+        <v>76947</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6462267074079943</v>
+        <v>0.6462267074079945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.559761723783027</v>
+        <v>0.5571813916970909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7234171306309289</v>
+        <v>0.7164323545747932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>340</v>
@@ -762,19 +762,19 @@
         <v>180704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>169883</v>
+        <v>168889</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190361</v>
+        <v>190300</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7278443253706316</v>
+        <v>0.7278443253706314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6842594431400262</v>
+        <v>0.6802551150131902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7667410053911854</v>
+        <v>0.766496663447728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>447</v>
@@ -783,19 +783,19 @@
         <v>250111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236097</v>
+        <v>236667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263048</v>
+        <v>263468</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7031983621408859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6637965486281746</v>
+        <v>0.6654013339133384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7395726916191125</v>
+        <v>0.7407538981823235</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18015</v>
+        <v>18014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33738</v>
+        <v>33430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2344016143494821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1677294629140341</v>
+        <v>0.167726994989874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3141259491601423</v>
+        <v>0.3112579186817059</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -833,19 +833,19 @@
         <v>20938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15029</v>
+        <v>15152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28201</v>
+        <v>28746</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08433545981040493</v>
+        <v>0.0843354598104049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06053480472132865</v>
+        <v>0.06103048338240666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1135887855006408</v>
+        <v>0.115784887690743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -854,19 +854,19 @@
         <v>46114</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36638</v>
+        <v>36841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58082</v>
+        <v>57867</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1296507363294101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1030088413172845</v>
+        <v>0.103580734464579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1632993933900588</v>
+        <v>0.1626954482944178</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>12821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7545</v>
+        <v>7972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20406</v>
+        <v>19708</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1193716782425234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07024858365212282</v>
+        <v>0.07422387815957328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1899934450389556</v>
+        <v>0.1834957345639978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>81</v>
@@ -904,19 +904,19 @@
         <v>46631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38042</v>
+        <v>38466</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56849</v>
+        <v>56796</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1878202148189635</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.15322482955428</v>
+        <v>0.1549337091643298</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2289780539378775</v>
+        <v>0.2287634356736896</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -925,19 +925,19 @@
         <v>59452</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49369</v>
+        <v>48693</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70912</v>
+        <v>70315</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.167150901529704</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1388026605053416</v>
+        <v>0.1369031425550612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1993726236340223</v>
+        <v>0.1976943520061578</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>100423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86980</v>
+        <v>87389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>112481</v>
+        <v>112512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6234207759735938</v>
+        <v>0.6234207759735941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5399636539870628</v>
+        <v>0.5425055288535277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6982742413599939</v>
+        <v>0.6984651778080682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -1050,19 +1050,19 @@
         <v>82907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71661</v>
+        <v>72310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93530</v>
+        <v>95261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4658665439695914</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.402673282948066</v>
+        <v>0.4063167080363319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5255535299411072</v>
+        <v>0.5352834459801757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>237</v>
@@ -1071,19 +1071,19 @@
         <v>183331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>165707</v>
+        <v>165647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>200719</v>
+        <v>201019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5407217200799698</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4887433073404004</v>
+        <v>0.4885663013149227</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5920071912692207</v>
+        <v>0.5928935206117056</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>27945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19069</v>
+        <v>19191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38298</v>
+        <v>39385</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1734837231578716</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1183767180459632</v>
+        <v>0.1191383181866251</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2377536036348152</v>
+        <v>0.2444980915668708</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -1121,19 +1121,19 @@
         <v>41224</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31737</v>
+        <v>31816</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52504</v>
+        <v>52314</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2316424194150341</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1783310189223763</v>
+        <v>0.1787783365671299</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2950275819294894</v>
+        <v>0.2939590226205247</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -1142,19 +1142,19 @@
         <v>69169</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55626</v>
+        <v>55644</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83857</v>
+        <v>84839</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2040107944481509</v>
+        <v>0.2040107944481508</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1640639083740093</v>
+        <v>0.1641188328610574</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2473297618064379</v>
+        <v>0.2502274306773185</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>32715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23027</v>
+        <v>23482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45250</v>
+        <v>44354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2030955008685346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1429472551733269</v>
+        <v>0.1457743755759301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2809088191709237</v>
+        <v>0.2753464686866959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1192,19 +1192,19 @@
         <v>53833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44859</v>
+        <v>43640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64622</v>
+        <v>64038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3024910366153745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2520703437438655</v>
+        <v>0.2452187056642718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3631192899426364</v>
+        <v>0.359836606168536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1213,19 +1213,19 @@
         <v>86548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72535</v>
+        <v>72993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102327</v>
+        <v>102278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2552674854718793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2139365215133444</v>
+        <v>0.2152893539699718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3018059404221545</v>
+        <v>0.3016630144154344</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>31627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23261</v>
+        <v>22982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39094</v>
+        <v>39410</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5859829846880911</v>
+        <v>0.5859829846880912</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4309769153908762</v>
+        <v>0.4258087716018488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7243163935278927</v>
+        <v>0.7301817996254427</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1338,19 +1338,19 @@
         <v>21497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15456</v>
+        <v>16270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27043</v>
+        <v>27412</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4683830190979497</v>
+        <v>0.4683830190979498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3367654567801126</v>
+        <v>0.3544978039246076</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5892238479884813</v>
+        <v>0.5972546416720947</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -1359,19 +1359,19 @@
         <v>53124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42194</v>
+        <v>42553</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63695</v>
+        <v>62942</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5319384986810635</v>
+        <v>0.5319384986810636</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4224957399173754</v>
+        <v>0.4260833943565439</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.637782361397724</v>
+        <v>0.6302424960873363</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>10143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4063</v>
+        <v>4394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19946</v>
+        <v>19972</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1879241813497922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0752757682315344</v>
+        <v>0.08140761954459791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3695636835569739</v>
+        <v>0.3700432137042982</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1409,19 +1409,19 @@
         <v>8232</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4610</v>
+        <v>4511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13196</v>
+        <v>12918</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1793719787966654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1004341689839499</v>
+        <v>0.09829047786838337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2875211498975545</v>
+        <v>0.2814634103788251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1430,19 +1430,19 @@
         <v>18375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11529</v>
+        <v>11308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29526</v>
+        <v>29247</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1839939132677199</v>
+        <v>0.18399391326772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1154435765514696</v>
+        <v>0.1132303022254148</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2956428083881237</v>
+        <v>0.2928576674696959</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>12203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6725</v>
+        <v>6185</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19080</v>
+        <v>18580</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2260928339621168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1246029626064366</v>
+        <v>0.1145923490082037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3535100326890671</v>
+        <v>0.3442472563147478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1480,19 +1480,19 @@
         <v>16167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11337</v>
+        <v>10895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22071</v>
+        <v>21864</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3522450021053848</v>
+        <v>0.3522450021053849</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2470220272480901</v>
+        <v>0.2373826592563301</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4808880759911545</v>
+        <v>0.4763810291484017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1501,19 +1501,19 @@
         <v>28370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20216</v>
+        <v>20220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38062</v>
+        <v>37303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2840675880512165</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2024277498465357</v>
+        <v>0.2024616657773132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.381121336729992</v>
+        <v>0.3735236649821758</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>201457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181474</v>
+        <v>182856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>218394</v>
+        <v>218991</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6247505435958227</v>
+        <v>0.6247505435958225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.562780395080292</v>
+        <v>0.5670663262473646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6772761362282067</v>
+        <v>0.6791256890177362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>502</v>
@@ -1626,19 +1626,19 @@
         <v>285109</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265987</v>
+        <v>266235</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>302111</v>
+        <v>302007</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6038733259146003</v>
+        <v>0.6038733259146002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5633739260513162</v>
+        <v>0.5638989525236761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6398854432098878</v>
+        <v>0.6396656543379147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>744</v>
@@ -1647,19 +1647,19 @@
         <v>486566</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>463050</v>
+        <v>463520</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>512532</v>
+        <v>513838</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6123456775428514</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5827508639939895</v>
+        <v>0.5833431107621342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6450242215430704</v>
+        <v>0.6466680353733224</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>63264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49750</v>
+        <v>49618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81162</v>
+        <v>80241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1961909060762984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1542835143818779</v>
+        <v>0.153872548128611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2516974504167015</v>
+        <v>0.2488394370039177</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -1697,19 +1697,19 @@
         <v>70395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58670</v>
+        <v>59143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84894</v>
+        <v>85007</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1490992077030309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1242653485982419</v>
+        <v>0.1252686576290206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1798084499286762</v>
+        <v>0.1800483488881486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>169</v>
@@ -1718,19 +1718,19 @@
         <v>133658</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113865</v>
+        <v>114276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152716</v>
+        <v>155088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1682098685909862</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1433001887234177</v>
+        <v>0.1438171138106717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1921941611977584</v>
+        <v>0.1951795726918454</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>57739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45351</v>
+        <v>44965</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73081</v>
+        <v>72427</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.179058550327879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1406392764329386</v>
+        <v>0.1394445065388613</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2266356022043401</v>
+        <v>0.2246089469933348</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>183</v>
@@ -1768,19 +1768,19 @@
         <v>116630</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>100944</v>
+        <v>102060</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131732</v>
+        <v>133374</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2470274663823689</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2138049347828844</v>
+        <v>0.2161688702076903</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.279014527272574</v>
+        <v>0.2824933073757061</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>243</v>
@@ -1789,19 +1789,19 @@
         <v>174369</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153624</v>
+        <v>153623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>195600</v>
+        <v>195771</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2194444538661624</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1933361294884801</v>
+        <v>0.1933352698372929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.246163915724495</v>
+        <v>0.246378937550057</v>
       </c>
     </row>
     <row r="19">
